--- a/metadata/five-year-outlook-metadata.xlsx
+++ b/metadata/five-year-outlook-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84AE45CE-D814-AF41-B0AB-D8172179D51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194A4A9B-6F68-8041-80FB-986D8637B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29620" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="1460" windowWidth="29260" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -74,6 +74,39 @@
   </si>
   <si>
     <t>attribute_name</t>
+  </si>
+  <si>
+    <t>org_id</t>
+  </si>
+  <si>
+    <t>pwsid</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>acre_feet</t>
+  </si>
+  <si>
+    <t>DWR assigned ID number associated with the urban retail water supplier</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ID number associated with water system in the supplier service area</t>
+  </si>
+  <si>
+    <t>is_shortage_action_included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The volume of water (acre feet) calculated by subtracting total use from the total supply. When the "is_shortage_action_included" is FALSE this represents the water surplus or shortage when no action is applied. When the "is_shortage_action_included" is TRUE this represents the water surplus or shortage when a shortage action (either supply augmentation or demand reduction) is applied. </t>
+  </si>
+  <si>
+    <t>TRUE if shortage action is applied (includes both supply augmentation and demand reduction actions. FALSE does not include shortage actions</t>
   </si>
 </sst>
 </file>
@@ -96,18 +129,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,23 +155,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,22 +554,23 @@
   <dimension ref="A1:AMG10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1"/>
+    <col min="2" max="2" width="54.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="3" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
@@ -554,47 +579,94 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -633,19 +705,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/metadata/five-year-outlook-metadata.xlsx
+++ b/metadata/five-year-outlook-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194A4A9B-6F68-8041-80FB-986D8637B513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7532DE0-3C24-DF45-B5B7-605BA11F142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1460" windowWidth="29260" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67620" yWindow="500" windowWidth="29260" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -85,9 +85,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>acre_feet</t>
-  </si>
-  <si>
     <t>DWR assigned ID number associated with the urban retail water supplier</t>
   </si>
   <si>
@@ -100,31 +97,60 @@
     <t>ID number associated with water system in the supplier service area</t>
   </si>
   <si>
-    <t>is_shortage_action_included</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The volume of water (acre feet) calculated by subtracting total use from the total supply. When the "is_shortage_action_included" is FALSE this represents the water surplus or shortage when no action is applied. When the "is_shortage_action_included" is TRUE this represents the water surplus or shortage when a shortage action (either supply augmentation or demand reduction) is applied. </t>
-  </si>
-  <si>
-    <t>TRUE if shortage action is applied (includes both supply augmentation and demand reduction actions. FALSE does not include shortage actions</t>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>Name of water supplier # TODO is there a more detailed description of this</t>
+  </si>
+  <si>
+    <t># TODO how best to describe year</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>YYYY</t>
+  </si>
+  <si>
+    <t>water_use_acre_feet</t>
+  </si>
+  <si>
+    <t>water_supplies_acre_feet</t>
+  </si>
+  <si>
+    <t>benefit_supply_augmentation_acre_feet</t>
+  </si>
+  <si>
+    <t>benefit_demand_reduction_acre_feet</t>
+  </si>
+  <si>
+    <t>Expected total water use (acre feet) for the given year that is assumed to be within a five-year drought period. # TODO is the assumption that total is both potable and nonpotable?</t>
+  </si>
+  <si>
+    <t>Expected total water supplies (acre feet) for the given year that is assumed to be within a five-year drought period. # TODO is the assumption that total is both potable and nonpotable?</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional water quanity (acre feet) resulting from a supply augmentation action. </t>
+  </si>
+  <si>
+    <t>Additional water quanity (acre feet) resulting from a demand reduction action.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -155,20 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,26 +572,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG10"/>
+  <dimension ref="A1:AMG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1"/>
-    <col min="2" max="2" width="54.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
@@ -579,114 +600,197 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G10" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.004</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1724349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
+        <v>138</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2708222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>151124</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C10:C1020" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E6 E10:E1020" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1020" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H6 H9:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metadata/five-year-outlook-metadata.xlsx
+++ b/metadata/five-year-outlook-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7532DE0-3C24-DF45-B5B7-605BA11F142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEC0B-83C0-2C4A-91FD-FBD53BA1A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67620" yWindow="500" windowWidth="29260" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30480" yWindow="520" windowWidth="31140" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -103,9 +103,6 @@
     <t>Name of water supplier # TODO is there a more detailed description of this</t>
   </si>
   <si>
-    <t># TODO how best to describe year</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
@@ -140,6 +137,18 @@
   </si>
   <si>
     <t>Additional water quanity (acre feet) resulting from a demand reduction action.</t>
+  </si>
+  <si>
+    <t>uwmp_year</t>
+  </si>
+  <si>
+    <t>The UWMP these data were reported in</t>
+  </si>
+  <si>
+    <t>forecast_year</t>
+  </si>
+  <si>
+    <t>In 2020, projections about water use/supply in a given year # TODO revise description</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +205,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG9"/>
+  <dimension ref="A1:AMG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +615,7 @@
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -654,7 +673,7 @@
       <c r="K2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -668,7 +687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -682,115 +701,1136 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1021" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="4"/>
+      <c r="HN5" s="4"/>
+      <c r="HO5" s="4"/>
+      <c r="HP5" s="4"/>
+      <c r="HQ5" s="4"/>
+      <c r="HR5" s="4"/>
+      <c r="HS5" s="4"/>
+      <c r="HT5" s="4"/>
+      <c r="HU5" s="4"/>
+      <c r="HV5" s="4"/>
+      <c r="HW5" s="4"/>
+      <c r="HX5" s="4"/>
+      <c r="HY5" s="4"/>
+      <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
+      <c r="IE5" s="4"/>
+      <c r="IF5" s="4"/>
+      <c r="IG5" s="4"/>
+      <c r="IH5" s="4"/>
+      <c r="II5" s="4"/>
+      <c r="IJ5" s="4"/>
+      <c r="IK5" s="4"/>
+      <c r="IL5" s="4"/>
+      <c r="IM5" s="4"/>
+      <c r="IN5" s="4"/>
+      <c r="IO5" s="4"/>
+      <c r="IP5" s="4"/>
+      <c r="IQ5" s="4"/>
+      <c r="IR5" s="4"/>
+      <c r="IS5" s="4"/>
+      <c r="IT5" s="4"/>
+      <c r="IU5" s="4"/>
+      <c r="IV5" s="4"/>
+      <c r="IW5" s="4"/>
+      <c r="IX5" s="4"/>
+      <c r="IY5" s="4"/>
+      <c r="IZ5" s="4"/>
+      <c r="JA5" s="4"/>
+      <c r="JB5" s="4"/>
+      <c r="JC5" s="4"/>
+      <c r="JD5" s="4"/>
+      <c r="JE5" s="4"/>
+      <c r="JF5" s="4"/>
+      <c r="JG5" s="4"/>
+      <c r="JH5" s="4"/>
+      <c r="JI5" s="4"/>
+      <c r="JJ5" s="4"/>
+      <c r="JK5" s="4"/>
+      <c r="JL5" s="4"/>
+      <c r="JM5" s="4"/>
+      <c r="JN5" s="4"/>
+      <c r="JO5" s="4"/>
+      <c r="JP5" s="4"/>
+      <c r="JQ5" s="4"/>
+      <c r="JR5" s="4"/>
+      <c r="JS5" s="4"/>
+      <c r="JT5" s="4"/>
+      <c r="JU5" s="4"/>
+      <c r="JV5" s="4"/>
+      <c r="JW5" s="4"/>
+      <c r="JX5" s="4"/>
+      <c r="JY5" s="4"/>
+      <c r="JZ5" s="4"/>
+      <c r="KA5" s="4"/>
+      <c r="KB5" s="4"/>
+      <c r="KC5" s="4"/>
+      <c r="KD5" s="4"/>
+      <c r="KE5" s="4"/>
+      <c r="KF5" s="4"/>
+      <c r="KG5" s="4"/>
+      <c r="KH5" s="4"/>
+      <c r="KI5" s="4"/>
+      <c r="KJ5" s="4"/>
+      <c r="KK5" s="4"/>
+      <c r="KL5" s="4"/>
+      <c r="KM5" s="4"/>
+      <c r="KN5" s="4"/>
+      <c r="KO5" s="4"/>
+      <c r="KP5" s="4"/>
+      <c r="KQ5" s="4"/>
+      <c r="KR5" s="4"/>
+      <c r="KS5" s="4"/>
+      <c r="KT5" s="4"/>
+      <c r="KU5" s="4"/>
+      <c r="KV5" s="4"/>
+      <c r="KW5" s="4"/>
+      <c r="KX5" s="4"/>
+      <c r="KY5" s="4"/>
+      <c r="KZ5" s="4"/>
+      <c r="LA5" s="4"/>
+      <c r="LB5" s="4"/>
+      <c r="LC5" s="4"/>
+      <c r="LD5" s="4"/>
+      <c r="LE5" s="4"/>
+      <c r="LF5" s="4"/>
+      <c r="LG5" s="4"/>
+      <c r="LH5" s="4"/>
+      <c r="LI5" s="4"/>
+      <c r="LJ5" s="4"/>
+      <c r="LK5" s="4"/>
+      <c r="LL5" s="4"/>
+      <c r="LM5" s="4"/>
+      <c r="LN5" s="4"/>
+      <c r="LO5" s="4"/>
+      <c r="LP5" s="4"/>
+      <c r="LQ5" s="4"/>
+      <c r="LR5" s="4"/>
+      <c r="LS5" s="4"/>
+      <c r="LT5" s="4"/>
+      <c r="LU5" s="4"/>
+      <c r="LV5" s="4"/>
+      <c r="LW5" s="4"/>
+      <c r="LX5" s="4"/>
+      <c r="LY5" s="4"/>
+      <c r="LZ5" s="4"/>
+      <c r="MA5" s="4"/>
+      <c r="MB5" s="4"/>
+      <c r="MC5" s="4"/>
+      <c r="MD5" s="4"/>
+      <c r="ME5" s="4"/>
+      <c r="MF5" s="4"/>
+      <c r="MG5" s="4"/>
+      <c r="MH5" s="4"/>
+      <c r="MI5" s="4"/>
+      <c r="MJ5" s="4"/>
+      <c r="MK5" s="4"/>
+      <c r="ML5" s="4"/>
+      <c r="MM5" s="4"/>
+      <c r="MN5" s="4"/>
+      <c r="MO5" s="4"/>
+      <c r="MP5" s="4"/>
+      <c r="MQ5" s="4"/>
+      <c r="MR5" s="4"/>
+      <c r="MS5" s="4"/>
+      <c r="MT5" s="4"/>
+      <c r="MU5" s="4"/>
+      <c r="MV5" s="4"/>
+      <c r="MW5" s="4"/>
+      <c r="MX5" s="4"/>
+      <c r="MY5" s="4"/>
+      <c r="MZ5" s="4"/>
+      <c r="NA5" s="4"/>
+      <c r="NB5" s="4"/>
+      <c r="NC5" s="4"/>
+      <c r="ND5" s="4"/>
+      <c r="NE5" s="4"/>
+      <c r="NF5" s="4"/>
+      <c r="NG5" s="4"/>
+      <c r="NH5" s="4"/>
+      <c r="NI5" s="4"/>
+      <c r="NJ5" s="4"/>
+      <c r="NK5" s="4"/>
+      <c r="NL5" s="4"/>
+      <c r="NM5" s="4"/>
+      <c r="NN5" s="4"/>
+      <c r="NO5" s="4"/>
+      <c r="NP5" s="4"/>
+      <c r="NQ5" s="4"/>
+      <c r="NR5" s="4"/>
+      <c r="NS5" s="4"/>
+      <c r="NT5" s="4"/>
+      <c r="NU5" s="4"/>
+      <c r="NV5" s="4"/>
+      <c r="NW5" s="4"/>
+      <c r="NX5" s="4"/>
+      <c r="NY5" s="4"/>
+      <c r="NZ5" s="4"/>
+      <c r="OA5" s="4"/>
+      <c r="OB5" s="4"/>
+      <c r="OC5" s="4"/>
+      <c r="OD5" s="4"/>
+      <c r="OE5" s="4"/>
+      <c r="OF5" s="4"/>
+      <c r="OG5" s="4"/>
+      <c r="OH5" s="4"/>
+      <c r="OI5" s="4"/>
+      <c r="OJ5" s="4"/>
+      <c r="OK5" s="4"/>
+      <c r="OL5" s="4"/>
+      <c r="OM5" s="4"/>
+      <c r="ON5" s="4"/>
+      <c r="OO5" s="4"/>
+      <c r="OP5" s="4"/>
+      <c r="OQ5" s="4"/>
+      <c r="OR5" s="4"/>
+      <c r="OS5" s="4"/>
+      <c r="OT5" s="4"/>
+      <c r="OU5" s="4"/>
+      <c r="OV5" s="4"/>
+      <c r="OW5" s="4"/>
+      <c r="OX5" s="4"/>
+      <c r="OY5" s="4"/>
+      <c r="OZ5" s="4"/>
+      <c r="PA5" s="4"/>
+      <c r="PB5" s="4"/>
+      <c r="PC5" s="4"/>
+      <c r="PD5" s="4"/>
+      <c r="PE5" s="4"/>
+      <c r="PF5" s="4"/>
+      <c r="PG5" s="4"/>
+      <c r="PH5" s="4"/>
+      <c r="PI5" s="4"/>
+      <c r="PJ5" s="4"/>
+      <c r="PK5" s="4"/>
+      <c r="PL5" s="4"/>
+      <c r="PM5" s="4"/>
+      <c r="PN5" s="4"/>
+      <c r="PO5" s="4"/>
+      <c r="PP5" s="4"/>
+      <c r="PQ5" s="4"/>
+      <c r="PR5" s="4"/>
+      <c r="PS5" s="4"/>
+      <c r="PT5" s="4"/>
+      <c r="PU5" s="4"/>
+      <c r="PV5" s="4"/>
+      <c r="PW5" s="4"/>
+      <c r="PX5" s="4"/>
+      <c r="PY5" s="4"/>
+      <c r="PZ5" s="4"/>
+      <c r="QA5" s="4"/>
+      <c r="QB5" s="4"/>
+      <c r="QC5" s="4"/>
+      <c r="QD5" s="4"/>
+      <c r="QE5" s="4"/>
+      <c r="QF5" s="4"/>
+      <c r="QG5" s="4"/>
+      <c r="QH5" s="4"/>
+      <c r="QI5" s="4"/>
+      <c r="QJ5" s="4"/>
+      <c r="QK5" s="4"/>
+      <c r="QL5" s="4"/>
+      <c r="QM5" s="4"/>
+      <c r="QN5" s="4"/>
+      <c r="QO5" s="4"/>
+      <c r="QP5" s="4"/>
+      <c r="QQ5" s="4"/>
+      <c r="QR5" s="4"/>
+      <c r="QS5" s="4"/>
+      <c r="QT5" s="4"/>
+      <c r="QU5" s="4"/>
+      <c r="QV5" s="4"/>
+      <c r="QW5" s="4"/>
+      <c r="QX5" s="4"/>
+      <c r="QY5" s="4"/>
+      <c r="QZ5" s="4"/>
+      <c r="RA5" s="4"/>
+      <c r="RB5" s="4"/>
+      <c r="RC5" s="4"/>
+      <c r="RD5" s="4"/>
+      <c r="RE5" s="4"/>
+      <c r="RF5" s="4"/>
+      <c r="RG5" s="4"/>
+      <c r="RH5" s="4"/>
+      <c r="RI5" s="4"/>
+      <c r="RJ5" s="4"/>
+      <c r="RK5" s="4"/>
+      <c r="RL5" s="4"/>
+      <c r="RM5" s="4"/>
+      <c r="RN5" s="4"/>
+      <c r="RO5" s="4"/>
+      <c r="RP5" s="4"/>
+      <c r="RQ5" s="4"/>
+      <c r="RR5" s="4"/>
+      <c r="RS5" s="4"/>
+      <c r="RT5" s="4"/>
+      <c r="RU5" s="4"/>
+      <c r="RV5" s="4"/>
+      <c r="RW5" s="4"/>
+      <c r="RX5" s="4"/>
+      <c r="RY5" s="4"/>
+      <c r="RZ5" s="4"/>
+      <c r="SA5" s="4"/>
+      <c r="SB5" s="4"/>
+      <c r="SC5" s="4"/>
+      <c r="SD5" s="4"/>
+      <c r="SE5" s="4"/>
+      <c r="SF5" s="4"/>
+      <c r="SG5" s="4"/>
+      <c r="SH5" s="4"/>
+      <c r="SI5" s="4"/>
+      <c r="SJ5" s="4"/>
+      <c r="SK5" s="4"/>
+      <c r="SL5" s="4"/>
+      <c r="SM5" s="4"/>
+      <c r="SN5" s="4"/>
+      <c r="SO5" s="4"/>
+      <c r="SP5" s="4"/>
+      <c r="SQ5" s="4"/>
+      <c r="SR5" s="4"/>
+      <c r="SS5" s="4"/>
+      <c r="ST5" s="4"/>
+      <c r="SU5" s="4"/>
+      <c r="SV5" s="4"/>
+      <c r="SW5" s="4"/>
+      <c r="SX5" s="4"/>
+      <c r="SY5" s="4"/>
+      <c r="SZ5" s="4"/>
+      <c r="TA5" s="4"/>
+      <c r="TB5" s="4"/>
+      <c r="TC5" s="4"/>
+      <c r="TD5" s="4"/>
+      <c r="TE5" s="4"/>
+      <c r="TF5" s="4"/>
+      <c r="TG5" s="4"/>
+      <c r="TH5" s="4"/>
+      <c r="TI5" s="4"/>
+      <c r="TJ5" s="4"/>
+      <c r="TK5" s="4"/>
+      <c r="TL5" s="4"/>
+      <c r="TM5" s="4"/>
+      <c r="TN5" s="4"/>
+      <c r="TO5" s="4"/>
+      <c r="TP5" s="4"/>
+      <c r="TQ5" s="4"/>
+      <c r="TR5" s="4"/>
+      <c r="TS5" s="4"/>
+      <c r="TT5" s="4"/>
+      <c r="TU5" s="4"/>
+      <c r="TV5" s="4"/>
+      <c r="TW5" s="4"/>
+      <c r="TX5" s="4"/>
+      <c r="TY5" s="4"/>
+      <c r="TZ5" s="4"/>
+      <c r="UA5" s="4"/>
+      <c r="UB5" s="4"/>
+      <c r="UC5" s="4"/>
+      <c r="UD5" s="4"/>
+      <c r="UE5" s="4"/>
+      <c r="UF5" s="4"/>
+      <c r="UG5" s="4"/>
+      <c r="UH5" s="4"/>
+      <c r="UI5" s="4"/>
+      <c r="UJ5" s="4"/>
+      <c r="UK5" s="4"/>
+      <c r="UL5" s="4"/>
+      <c r="UM5" s="4"/>
+      <c r="UN5" s="4"/>
+      <c r="UO5" s="4"/>
+      <c r="UP5" s="4"/>
+      <c r="UQ5" s="4"/>
+      <c r="UR5" s="4"/>
+      <c r="US5" s="4"/>
+      <c r="UT5" s="4"/>
+      <c r="UU5" s="4"/>
+      <c r="UV5" s="4"/>
+      <c r="UW5" s="4"/>
+      <c r="UX5" s="4"/>
+      <c r="UY5" s="4"/>
+      <c r="UZ5" s="4"/>
+      <c r="VA5" s="4"/>
+      <c r="VB5" s="4"/>
+      <c r="VC5" s="4"/>
+      <c r="VD5" s="4"/>
+      <c r="VE5" s="4"/>
+      <c r="VF5" s="4"/>
+      <c r="VG5" s="4"/>
+      <c r="VH5" s="4"/>
+      <c r="VI5" s="4"/>
+      <c r="VJ5" s="4"/>
+      <c r="VK5" s="4"/>
+      <c r="VL5" s="4"/>
+      <c r="VM5" s="4"/>
+      <c r="VN5" s="4"/>
+      <c r="VO5" s="4"/>
+      <c r="VP5" s="4"/>
+      <c r="VQ5" s="4"/>
+      <c r="VR5" s="4"/>
+      <c r="VS5" s="4"/>
+      <c r="VT5" s="4"/>
+      <c r="VU5" s="4"/>
+      <c r="VV5" s="4"/>
+      <c r="VW5" s="4"/>
+      <c r="VX5" s="4"/>
+      <c r="VY5" s="4"/>
+      <c r="VZ5" s="4"/>
+      <c r="WA5" s="4"/>
+      <c r="WB5" s="4"/>
+      <c r="WC5" s="4"/>
+      <c r="WD5" s="4"/>
+      <c r="WE5" s="4"/>
+      <c r="WF5" s="4"/>
+      <c r="WG5" s="4"/>
+      <c r="WH5" s="4"/>
+      <c r="WI5" s="4"/>
+      <c r="WJ5" s="4"/>
+      <c r="WK5" s="4"/>
+      <c r="WL5" s="4"/>
+      <c r="WM5" s="4"/>
+      <c r="WN5" s="4"/>
+      <c r="WO5" s="4"/>
+      <c r="WP5" s="4"/>
+      <c r="WQ5" s="4"/>
+      <c r="WR5" s="4"/>
+      <c r="WS5" s="4"/>
+      <c r="WT5" s="4"/>
+      <c r="WU5" s="4"/>
+      <c r="WV5" s="4"/>
+      <c r="WW5" s="4"/>
+      <c r="WX5" s="4"/>
+      <c r="WY5" s="4"/>
+      <c r="WZ5" s="4"/>
+      <c r="XA5" s="4"/>
+      <c r="XB5" s="4"/>
+      <c r="XC5" s="4"/>
+      <c r="XD5" s="4"/>
+      <c r="XE5" s="4"/>
+      <c r="XF5" s="4"/>
+      <c r="XG5" s="4"/>
+      <c r="XH5" s="4"/>
+      <c r="XI5" s="4"/>
+      <c r="XJ5" s="4"/>
+      <c r="XK5" s="4"/>
+      <c r="XL5" s="4"/>
+      <c r="XM5" s="4"/>
+      <c r="XN5" s="4"/>
+      <c r="XO5" s="4"/>
+      <c r="XP5" s="4"/>
+      <c r="XQ5" s="4"/>
+      <c r="XR5" s="4"/>
+      <c r="XS5" s="4"/>
+      <c r="XT5" s="4"/>
+      <c r="XU5" s="4"/>
+      <c r="XV5" s="4"/>
+      <c r="XW5" s="4"/>
+      <c r="XX5" s="4"/>
+      <c r="XY5" s="4"/>
+      <c r="XZ5" s="4"/>
+      <c r="YA5" s="4"/>
+      <c r="YB5" s="4"/>
+      <c r="YC5" s="4"/>
+      <c r="YD5" s="4"/>
+      <c r="YE5" s="4"/>
+      <c r="YF5" s="4"/>
+      <c r="YG5" s="4"/>
+      <c r="YH5" s="4"/>
+      <c r="YI5" s="4"/>
+      <c r="YJ5" s="4"/>
+      <c r="YK5" s="4"/>
+      <c r="YL5" s="4"/>
+      <c r="YM5" s="4"/>
+      <c r="YN5" s="4"/>
+      <c r="YO5" s="4"/>
+      <c r="YP5" s="4"/>
+      <c r="YQ5" s="4"/>
+      <c r="YR5" s="4"/>
+      <c r="YS5" s="4"/>
+      <c r="YT5" s="4"/>
+      <c r="YU5" s="4"/>
+      <c r="YV5" s="4"/>
+      <c r="YW5" s="4"/>
+      <c r="YX5" s="4"/>
+      <c r="YY5" s="4"/>
+      <c r="YZ5" s="4"/>
+      <c r="ZA5" s="4"/>
+      <c r="ZB5" s="4"/>
+      <c r="ZC5" s="4"/>
+      <c r="ZD5" s="4"/>
+      <c r="ZE5" s="4"/>
+      <c r="ZF5" s="4"/>
+      <c r="ZG5" s="4"/>
+      <c r="ZH5" s="4"/>
+      <c r="ZI5" s="4"/>
+      <c r="ZJ5" s="4"/>
+      <c r="ZK5" s="4"/>
+      <c r="ZL5" s="4"/>
+      <c r="ZM5" s="4"/>
+      <c r="ZN5" s="4"/>
+      <c r="ZO5" s="4"/>
+      <c r="ZP5" s="4"/>
+      <c r="ZQ5" s="4"/>
+      <c r="ZR5" s="4"/>
+      <c r="ZS5" s="4"/>
+      <c r="ZT5" s="4"/>
+      <c r="ZU5" s="4"/>
+      <c r="ZV5" s="4"/>
+      <c r="ZW5" s="4"/>
+      <c r="ZX5" s="4"/>
+      <c r="ZY5" s="4"/>
+      <c r="ZZ5" s="4"/>
+      <c r="AAA5" s="4"/>
+      <c r="AAB5" s="4"/>
+      <c r="AAC5" s="4"/>
+      <c r="AAD5" s="4"/>
+      <c r="AAE5" s="4"/>
+      <c r="AAF5" s="4"/>
+      <c r="AAG5" s="4"/>
+      <c r="AAH5" s="4"/>
+      <c r="AAI5" s="4"/>
+      <c r="AAJ5" s="4"/>
+      <c r="AAK5" s="4"/>
+      <c r="AAL5" s="4"/>
+      <c r="AAM5" s="4"/>
+      <c r="AAN5" s="4"/>
+      <c r="AAO5" s="4"/>
+      <c r="AAP5" s="4"/>
+      <c r="AAQ5" s="4"/>
+      <c r="AAR5" s="4"/>
+      <c r="AAS5" s="4"/>
+      <c r="AAT5" s="4"/>
+      <c r="AAU5" s="4"/>
+      <c r="AAV5" s="4"/>
+      <c r="AAW5" s="4"/>
+      <c r="AAX5" s="4"/>
+      <c r="AAY5" s="4"/>
+      <c r="AAZ5" s="4"/>
+      <c r="ABA5" s="4"/>
+      <c r="ABB5" s="4"/>
+      <c r="ABC5" s="4"/>
+      <c r="ABD5" s="4"/>
+      <c r="ABE5" s="4"/>
+      <c r="ABF5" s="4"/>
+      <c r="ABG5" s="4"/>
+      <c r="ABH5" s="4"/>
+      <c r="ABI5" s="4"/>
+      <c r="ABJ5" s="4"/>
+      <c r="ABK5" s="4"/>
+      <c r="ABL5" s="4"/>
+      <c r="ABM5" s="4"/>
+      <c r="ABN5" s="4"/>
+      <c r="ABO5" s="4"/>
+      <c r="ABP5" s="4"/>
+      <c r="ABQ5" s="4"/>
+      <c r="ABR5" s="4"/>
+      <c r="ABS5" s="4"/>
+      <c r="ABT5" s="4"/>
+      <c r="ABU5" s="4"/>
+      <c r="ABV5" s="4"/>
+      <c r="ABW5" s="4"/>
+      <c r="ABX5" s="4"/>
+      <c r="ABY5" s="4"/>
+      <c r="ABZ5" s="4"/>
+      <c r="ACA5" s="4"/>
+      <c r="ACB5" s="4"/>
+      <c r="ACC5" s="4"/>
+      <c r="ACD5" s="4"/>
+      <c r="ACE5" s="4"/>
+      <c r="ACF5" s="4"/>
+      <c r="ACG5" s="4"/>
+      <c r="ACH5" s="4"/>
+      <c r="ACI5" s="4"/>
+      <c r="ACJ5" s="4"/>
+      <c r="ACK5" s="4"/>
+      <c r="ACL5" s="4"/>
+      <c r="ACM5" s="4"/>
+      <c r="ACN5" s="4"/>
+      <c r="ACO5" s="4"/>
+      <c r="ACP5" s="4"/>
+      <c r="ACQ5" s="4"/>
+      <c r="ACR5" s="4"/>
+      <c r="ACS5" s="4"/>
+      <c r="ACT5" s="4"/>
+      <c r="ACU5" s="4"/>
+      <c r="ACV5" s="4"/>
+      <c r="ACW5" s="4"/>
+      <c r="ACX5" s="4"/>
+      <c r="ACY5" s="4"/>
+      <c r="ACZ5" s="4"/>
+      <c r="ADA5" s="4"/>
+      <c r="ADB5" s="4"/>
+      <c r="ADC5" s="4"/>
+      <c r="ADD5" s="4"/>
+      <c r="ADE5" s="4"/>
+      <c r="ADF5" s="4"/>
+      <c r="ADG5" s="4"/>
+      <c r="ADH5" s="4"/>
+      <c r="ADI5" s="4"/>
+      <c r="ADJ5" s="4"/>
+      <c r="ADK5" s="4"/>
+      <c r="ADL5" s="4"/>
+      <c r="ADM5" s="4"/>
+      <c r="ADN5" s="4"/>
+      <c r="ADO5" s="4"/>
+      <c r="ADP5" s="4"/>
+      <c r="ADQ5" s="4"/>
+      <c r="ADR5" s="4"/>
+      <c r="ADS5" s="4"/>
+      <c r="ADT5" s="4"/>
+      <c r="ADU5" s="4"/>
+      <c r="ADV5" s="4"/>
+      <c r="ADW5" s="4"/>
+      <c r="ADX5" s="4"/>
+      <c r="ADY5" s="4"/>
+      <c r="ADZ5" s="4"/>
+      <c r="AEA5" s="4"/>
+      <c r="AEB5" s="4"/>
+      <c r="AEC5" s="4"/>
+      <c r="AED5" s="4"/>
+      <c r="AEE5" s="4"/>
+      <c r="AEF5" s="4"/>
+      <c r="AEG5" s="4"/>
+      <c r="AEH5" s="4"/>
+      <c r="AEI5" s="4"/>
+      <c r="AEJ5" s="4"/>
+      <c r="AEK5" s="4"/>
+      <c r="AEL5" s="4"/>
+      <c r="AEM5" s="4"/>
+      <c r="AEN5" s="4"/>
+      <c r="AEO5" s="4"/>
+      <c r="AEP5" s="4"/>
+      <c r="AEQ5" s="4"/>
+      <c r="AER5" s="4"/>
+      <c r="AES5" s="4"/>
+      <c r="AET5" s="4"/>
+      <c r="AEU5" s="4"/>
+      <c r="AEV5" s="4"/>
+      <c r="AEW5" s="4"/>
+      <c r="AEX5" s="4"/>
+      <c r="AEY5" s="4"/>
+      <c r="AEZ5" s="4"/>
+      <c r="AFA5" s="4"/>
+      <c r="AFB5" s="4"/>
+      <c r="AFC5" s="4"/>
+      <c r="AFD5" s="4"/>
+      <c r="AFE5" s="4"/>
+      <c r="AFF5" s="4"/>
+      <c r="AFG5" s="4"/>
+      <c r="AFH5" s="4"/>
+      <c r="AFI5" s="4"/>
+      <c r="AFJ5" s="4"/>
+      <c r="AFK5" s="4"/>
+      <c r="AFL5" s="4"/>
+      <c r="AFM5" s="4"/>
+      <c r="AFN5" s="4"/>
+      <c r="AFO5" s="4"/>
+      <c r="AFP5" s="4"/>
+      <c r="AFQ5" s="4"/>
+      <c r="AFR5" s="4"/>
+      <c r="AFS5" s="4"/>
+      <c r="AFT5" s="4"/>
+      <c r="AFU5" s="4"/>
+      <c r="AFV5" s="4"/>
+      <c r="AFW5" s="4"/>
+      <c r="AFX5" s="4"/>
+      <c r="AFY5" s="4"/>
+      <c r="AFZ5" s="4"/>
+      <c r="AGA5" s="4"/>
+      <c r="AGB5" s="4"/>
+      <c r="AGC5" s="4"/>
+      <c r="AGD5" s="4"/>
+      <c r="AGE5" s="4"/>
+      <c r="AGF5" s="4"/>
+      <c r="AGG5" s="4"/>
+      <c r="AGH5" s="4"/>
+      <c r="AGI5" s="4"/>
+      <c r="AGJ5" s="4"/>
+      <c r="AGK5" s="4"/>
+      <c r="AGL5" s="4"/>
+      <c r="AGM5" s="4"/>
+      <c r="AGN5" s="4"/>
+      <c r="AGO5" s="4"/>
+      <c r="AGP5" s="4"/>
+      <c r="AGQ5" s="4"/>
+      <c r="AGR5" s="4"/>
+      <c r="AGS5" s="4"/>
+      <c r="AGT5" s="4"/>
+      <c r="AGU5" s="4"/>
+      <c r="AGV5" s="4"/>
+      <c r="AGW5" s="4"/>
+      <c r="AGX5" s="4"/>
+      <c r="AGY5" s="4"/>
+      <c r="AGZ5" s="4"/>
+      <c r="AHA5" s="4"/>
+      <c r="AHB5" s="4"/>
+      <c r="AHC5" s="4"/>
+      <c r="AHD5" s="4"/>
+      <c r="AHE5" s="4"/>
+      <c r="AHF5" s="4"/>
+      <c r="AHG5" s="4"/>
+      <c r="AHH5" s="4"/>
+      <c r="AHI5" s="4"/>
+      <c r="AHJ5" s="4"/>
+      <c r="AHK5" s="4"/>
+      <c r="AHL5" s="4"/>
+      <c r="AHM5" s="4"/>
+      <c r="AHN5" s="4"/>
+      <c r="AHO5" s="4"/>
+      <c r="AHP5" s="4"/>
+      <c r="AHQ5" s="4"/>
+      <c r="AHR5" s="4"/>
+      <c r="AHS5" s="4"/>
+      <c r="AHT5" s="4"/>
+      <c r="AHU5" s="4"/>
+      <c r="AHV5" s="4"/>
+      <c r="AHW5" s="4"/>
+      <c r="AHX5" s="4"/>
+      <c r="AHY5" s="4"/>
+      <c r="AHZ5" s="4"/>
+      <c r="AIA5" s="4"/>
+      <c r="AIB5" s="4"/>
+      <c r="AIC5" s="4"/>
+      <c r="AID5" s="4"/>
+      <c r="AIE5" s="4"/>
+      <c r="AIF5" s="4"/>
+      <c r="AIG5" s="4"/>
+      <c r="AIH5" s="4"/>
+      <c r="AII5" s="4"/>
+      <c r="AIJ5" s="4"/>
+      <c r="AIK5" s="4"/>
+      <c r="AIL5" s="4"/>
+      <c r="AIM5" s="4"/>
+      <c r="AIN5" s="4"/>
+      <c r="AIO5" s="4"/>
+      <c r="AIP5" s="4"/>
+      <c r="AIQ5" s="4"/>
+      <c r="AIR5" s="4"/>
+      <c r="AIS5" s="4"/>
+      <c r="AIT5" s="4"/>
+      <c r="AIU5" s="4"/>
+      <c r="AIV5" s="4"/>
+      <c r="AIW5" s="4"/>
+      <c r="AIX5" s="4"/>
+      <c r="AIY5" s="4"/>
+      <c r="AIZ5" s="4"/>
+      <c r="AJA5" s="4"/>
+      <c r="AJB5" s="4"/>
+      <c r="AJC5" s="4"/>
+      <c r="AJD5" s="4"/>
+      <c r="AJE5" s="4"/>
+      <c r="AJF5" s="4"/>
+      <c r="AJG5" s="4"/>
+      <c r="AJH5" s="4"/>
+      <c r="AJI5" s="4"/>
+      <c r="AJJ5" s="4"/>
+      <c r="AJK5" s="4"/>
+      <c r="AJL5" s="4"/>
+      <c r="AJM5" s="4"/>
+      <c r="AJN5" s="4"/>
+      <c r="AJO5" s="4"/>
+      <c r="AJP5" s="4"/>
+      <c r="AJQ5" s="4"/>
+      <c r="AJR5" s="4"/>
+      <c r="AJS5" s="4"/>
+      <c r="AJT5" s="4"/>
+      <c r="AJU5" s="4"/>
+      <c r="AJV5" s="4"/>
+      <c r="AJW5" s="4"/>
+      <c r="AJX5" s="4"/>
+      <c r="AJY5" s="4"/>
+      <c r="AJZ5" s="4"/>
+      <c r="AKA5" s="4"/>
+      <c r="AKB5" s="4"/>
+      <c r="AKC5" s="4"/>
+      <c r="AKD5" s="4"/>
+      <c r="AKE5" s="4"/>
+      <c r="AKF5" s="4"/>
+      <c r="AKG5" s="4"/>
+      <c r="AKH5" s="4"/>
+      <c r="AKI5" s="4"/>
+      <c r="AKJ5" s="4"/>
+      <c r="AKK5" s="4"/>
+      <c r="AKL5" s="4"/>
+      <c r="AKM5" s="4"/>
+      <c r="AKN5" s="4"/>
+      <c r="AKO5" s="4"/>
+      <c r="AKP5" s="4"/>
+      <c r="AKQ5" s="4"/>
+      <c r="AKR5" s="4"/>
+      <c r="AKS5" s="4"/>
+      <c r="AKT5" s="4"/>
+      <c r="AKU5" s="4"/>
+      <c r="AKV5" s="4"/>
+      <c r="AKW5" s="4"/>
+      <c r="AKX5" s="4"/>
+      <c r="AKY5" s="4"/>
+      <c r="AKZ5" s="4"/>
+      <c r="ALA5" s="4"/>
+      <c r="ALB5" s="4"/>
+      <c r="ALC5" s="4"/>
+      <c r="ALD5" s="4"/>
+      <c r="ALE5" s="4"/>
+      <c r="ALF5" s="4"/>
+      <c r="ALG5" s="4"/>
+      <c r="ALH5" s="4"/>
+      <c r="ALI5" s="4"/>
+      <c r="ALJ5" s="4"/>
+      <c r="ALK5" s="4"/>
+      <c r="ALL5" s="4"/>
+      <c r="ALM5" s="4"/>
+      <c r="ALN5" s="4"/>
+      <c r="ALO5" s="4"/>
+      <c r="ALP5" s="4"/>
+      <c r="ALQ5" s="4"/>
+      <c r="ALR5" s="4"/>
+      <c r="ALS5" s="4"/>
+      <c r="ALT5" s="4"/>
+      <c r="ALU5" s="4"/>
+      <c r="ALV5" s="4"/>
+      <c r="ALW5" s="4"/>
+      <c r="ALX5" s="4"/>
+      <c r="ALY5" s="4"/>
+      <c r="ALZ5" s="4"/>
+      <c r="AMA5" s="4"/>
+      <c r="AMB5" s="4"/>
+      <c r="AMC5" s="4"/>
+      <c r="AMD5" s="4"/>
+      <c r="AME5" s="4"/>
+      <c r="AMF5" s="4"/>
+      <c r="AMG5" s="4"/>
+    </row>
+    <row r="6" spans="1:1021" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1021" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2021</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2025</v>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1724349</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1021" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1">
-        <v>10.004</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1724349</v>
+      <c r="L8" s="1">
+        <v>138</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2708222</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1">
-        <v>138</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2708222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>432000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>151124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C10:C1020" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C7 C11:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E6 E10:E1020" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E7 E11:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F9:F1020" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F7 F10:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H6 H9:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H10:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metadata/five-year-outlook-metadata.xlsx
+++ b/metadata/five-year-outlook-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEC0B-83C0-2C4A-91FD-FBD53BA1A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D9DDEC0B-83C0-2C4A-91FD-FBD53BA1A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3606C7-B373-409F-901E-D3BAAC4A7E2F}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="520" windowWidth="31140" windowHeight="27060" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,8 +36,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={74744795-7465-42DC-B4C1-B991DF1DD10B}</author>
+    <author>tc={3B315ABA-19DF-4ECF-98D0-9455A2826147}</author>
+    <author>tc={62F31792-D14E-42C1-B8D8-B3D2C8322438}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{74744795-7465-42DC-B4C1-B991DF1DD10B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I think this should be ratio, as the IDs are numbers. What do you think?</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{3B315ABA-19DF-4ECF-98D0-9455A2826147}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not in csv file</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="2" shapeId="0" xr:uid="{62F31792-D14E-42C1-B8D8-B3D2C8322438}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There is only "year" in the table - which one is that in reference to?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -133,12 +180,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional water quanity (acre feet) resulting from a supply augmentation action. </t>
-  </si>
-  <si>
-    <t>Additional water quanity (acre feet) resulting from a demand reduction action.</t>
-  </si>
-  <si>
     <t>uwmp_year</t>
   </si>
   <si>
@@ -149,6 +190,21 @@
   </si>
   <si>
     <t>In 2020, projections about water use/supply in a given year # TODO revise description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional water quantity (acre feet) resulting from a supply augmentation action. </t>
+  </si>
+  <si>
+    <t>Additional water quantity (acre feet) resulting from a demand reduction action.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>acre-feet</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -292,6 +348,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kanavas, Zoe@DWR (she/her)" id="{00A894CF-83D2-4A07-837C-E23662C3D176}" userId="S::Zoe.Kanavas@water.ca.gov::a9497dc4-3ae7-4325-9eed-74504f04b3ea" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,33 +651,47 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2024-07-31T16:36:48.37" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{74744795-7465-42DC-B4C1-B991DF1DD10B}">
+    <text>I think this should be ratio, as the IDs are numbers. What do you think?</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2024-07-31T16:32:01.07" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{3B315ABA-19DF-4ECF-98D0-9455A2826147}">
+    <text>Not in csv file</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2024-07-31T16:33:00.92" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{62F31792-D14E-42C1-B8D8-B3D2C8322438}">
+    <text>There is only "year" in the table - which one is that in reference to?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1"/>
+    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="1"/>
-    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="1021" width="19.625" style="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,11 +745,21 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -686,8 +772,20 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -700,13 +798,25 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:1021" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1021" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -1740,21 +1850,57 @@
       <c r="AMF5" s="4"/>
       <c r="AMG5" s="4"/>
     </row>
-    <row r="6" spans="1:1021" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1021" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1021" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L7" s="1">
         <v>10.004</v>
       </c>
@@ -1762,13 +1908,34 @@
         <v>1724349</v>
       </c>
     </row>
-    <row r="8" spans="1:1021" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1021" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L8" s="1">
         <v>138</v>
       </c>
@@ -1776,12 +1943,12 @@
         <v>2708222</v>
       </c>
     </row>
-    <row r="9" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1789,6 +1956,21 @@
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
@@ -1796,18 +1978,33 @@
         <v>432000</v>
       </c>
     </row>
-    <row r="10" spans="1:1021" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1021" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1836,6 +2033,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1847,14 +2045,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata/five-year-outlook-metadata.xlsx
+++ b/metadata/five-year-outlook-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D9DDEC0B-83C0-2C4A-91FD-FBD53BA1A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3606C7-B373-409F-901E-D3BAAC4A7E2F}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{D9DDEC0B-83C0-2C4A-91FD-FBD53BA1A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B68070C-3B50-4DDE-90C6-498B2C482B79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    I think this should be ratio, as the IDs are numbers. What do you think?</t>
+    I think this should be ratio, as the IDs are numbers. What do you think?
+Reply:
+    No. IDs should be treated as nominal (double check the docs)</t>
       </text>
     </comment>
     <comment ref="A3" authorId="1" shapeId="0" xr:uid="{3B315ABA-19DF-4ECF-98D0-9455A2826147}">
@@ -57,7 +59,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Not in csv file</t>
+    Not in csv file
+Reply:
+    This needs to be added</t>
       </text>
     </comment>
     <comment ref="A6" authorId="2" shapeId="0" xr:uid="{62F31792-D14E-42C1-B8D8-B3D2C8322438}">
@@ -73,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -205,6 +209,12 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>UWMP</t>
+  </si>
+  <si>
+    <t>eAR</t>
   </si>
 </sst>
 </file>
@@ -656,8 +666,14 @@
   <threadedComment ref="C2" dT="2024-07-31T16:36:48.37" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{74744795-7465-42DC-B4C1-B991DF1DD10B}">
     <text>I think this should be ratio, as the IDs are numbers. What do you think?</text>
   </threadedComment>
+  <threadedComment ref="C2" dT="2024-07-31T18:15:02.13" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{4B667DD2-45C4-4B35-9017-647CB2C905D6}" parentId="{74744795-7465-42DC-B4C1-B991DF1DD10B}">
+    <text>No. IDs should be treated as nominal (double check the docs)</text>
+  </threadedComment>
   <threadedComment ref="A3" dT="2024-07-31T16:32:01.07" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{3B315ABA-19DF-4ECF-98D0-9455A2826147}">
     <text>Not in csv file</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2024-07-31T18:18:09.10" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{A0B89C6E-E644-4421-A1B2-AA49C4F8EDC3}" parentId="{3B315ABA-19DF-4ECF-98D0-9455A2826147}">
+    <text>This needs to be added</text>
   </threadedComment>
   <threadedComment ref="A6" dT="2024-07-31T16:33:00.92" personId="{00A894CF-83D2-4A07-837C-E23662C3D176}" id="{62F31792-D14E-42C1-B8D8-B3D2C8322438}">
     <text>There is only "year" in the table - which one is that in reference to?</text>
@@ -670,7 +686,7 @@
   <dimension ref="A1:AMG10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,6 +758,9 @@
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
@@ -769,6 +788,9 @@
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
@@ -795,6 +817,9 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
@@ -821,7 +846,9 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1860,6 +1887,9 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1883,6 +1913,9 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1918,6 +1951,9 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1953,6 +1989,9 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1987,6 +2026,9 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
